--- a/frontend/src/assets/template/employee-template.xlsx
+++ b/frontend/src/assets/template/employee-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react5\frontend\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react7\frontend\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCED20-92FC-4A56-BF22-C79474618A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D65625F-8B99-4C3D-B984-08F95C56ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,25 +56,25 @@
     <t>reporting_to</t>
   </si>
   <si>
-    <t>(ex. Kamisah )</t>
-  </si>
-  <si>
-    <t>(ex. 2023-09-09 )</t>
-  </si>
-  <si>
-    <t>(ex. Executive )</t>
-  </si>
-  <si>
-    <t>(ex. Human Resources )</t>
-  </si>
-  <si>
-    <t>(ex. aiman@company.com.my )</t>
-  </si>
-  <si>
-    <t>(ex. Aiman Hakim Reza )</t>
-  </si>
-  <si>
-    <t>(ex. TEST001 )</t>
+    <t>(eg. TEST001 )</t>
+  </si>
+  <si>
+    <t>(eg. Aiman Hakim Reza )</t>
+  </si>
+  <si>
+    <t>(eg. aiman@company.com.my )</t>
+  </si>
+  <si>
+    <t>(eg. Human Resources )</t>
+  </si>
+  <si>
+    <t>(eg. Executive )</t>
+  </si>
+  <si>
+    <t>(eg. 2023-09-09 )</t>
+  </si>
+  <si>
+    <t>(eg. Kamisah )</t>
   </si>
 </sst>
 </file>
@@ -648,9 +648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -688,7 +688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -794,7 +794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,7 +947,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,25 +991,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
